--- a/Tricentis_Insurance/src/test/resources/TestData.xlsx
+++ b/Tricentis_Insurance/src/test/resources/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>Tc SlNo</t>
   </si>
@@ -78,10 +78,28 @@
     <t>TC_AM_EnterVehicleData_008</t>
   </si>
   <si>
-    <t>TC_AM_EnterVehicleData_014to_020</t>
-  </si>
-  <si>
-    <t>TC_AM_EnterVehicleData_009to_013</t>
+    <t>TC_AM_EnterVehicleData_009</t>
+  </si>
+  <si>
+    <t>TC_AM_EnterVehicleData_010</t>
+  </si>
+  <si>
+    <t>TC_AM_EnterVehicleData_011</t>
+  </si>
+  <si>
+    <t>TC_AM_EnterVehicleData_012</t>
+  </si>
+  <si>
+    <t>TC_AM_EnterVehicleData_013</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
   </si>
 </sst>
 </file>
@@ -442,7 +460,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -461,7 +479,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -469,7 +487,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2">
         <v>12</v>
@@ -477,7 +495,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2">
         <v>999</v>
@@ -485,7 +503,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1">
         <v>1200</v>
@@ -493,7 +511,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1">
         <v>2000</v>
@@ -501,7 +519,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -509,7 +527,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1">
         <v>2001</v>
@@ -517,7 +535,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -525,7 +543,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -533,7 +551,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -541,7 +559,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -549,7 +567,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>6</v>
@@ -562,10 +580,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -632,10 +650,34 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
